--- a/src/output/results7.xlsx
+++ b/src/output/results7.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -346,498 +346,1056 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5008.0</v>
+        <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1223.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5286.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1220.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4510.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1424.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4019.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1982.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3652.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1965.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3414.0</v>
+        <v>7.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1895.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3308.0</v>
+        <v>10.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1626.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3074.0</v>
+        <v>14.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1561.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3014.0</v>
+        <v>23.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1482.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2738.0</v>
+        <v>28.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1409.0</v>
+        <v>28.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2774.0</v>
+        <v>35.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1366.0</v>
+        <v>35.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2813.0</v>
+        <v>49.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1267.0</v>
+        <v>49.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2689.0</v>
+        <v>54.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1174.0</v>
+        <v>53.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2635.0</v>
+        <v>68.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1184.0</v>
+        <v>65.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2744.0</v>
+        <v>83.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1231.0</v>
+        <v>79.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2635.0</v>
+        <v>94.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1114.0</v>
+        <v>88.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2621.0</v>
+        <v>115.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1107.0</v>
+        <v>107.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2572.0</v>
+        <v>139.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1208.0</v>
+        <v>130.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2497.0</v>
+        <v>167.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1138.0</v>
+        <v>154.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2578.0</v>
+        <v>211.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1101.0</v>
+        <v>192.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2549.0</v>
+        <v>249.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1024.0</v>
+        <v>223.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2563.0</v>
+        <v>298.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1092.0</v>
+        <v>262.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2542.0</v>
+        <v>329.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1089.0</v>
+        <v>282.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2532.0</v>
+        <v>366.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1099.0</v>
+        <v>313.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2509.0</v>
+        <v>408.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1106.0</v>
+        <v>340.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2599.0</v>
+        <v>455.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1077.0</v>
+        <v>371.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2531.0</v>
+        <v>509.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1069.0</v>
+        <v>406.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2557.0</v>
+        <v>568.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1087.0</v>
+        <v>439.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2677.0</v>
+        <v>618.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1068.0</v>
+        <v>472.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2554.0</v>
+        <v>688.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1050.0</v>
+        <v>518.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2530.0</v>
+        <v>758.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1083.0</v>
+        <v>559.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3241.0</v>
+        <v>836.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1092.0</v>
+        <v>597.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3280.0</v>
+        <v>920.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1066.0</v>
+        <v>649.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>269.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3048.0</v>
+        <v>1011.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1181.0</v>
+        <v>705.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>304.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3114.0</v>
+        <v>1091.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1342.0</v>
+        <v>758.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>330.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4278.0</v>
+        <v>1181.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1344.0</v>
+        <v>800.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>378.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3985.0</v>
+        <v>1294.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1300.0</v>
+        <v>859.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>432.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4627.0</v>
+        <v>1421.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1465.0</v>
+        <v>924.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>493.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5179.0</v>
+        <v>1571.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1746.0</v>
+        <v>1023.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>541.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5825.0</v>
+        <v>1723.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1887.0</v>
+        <v>1115.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>600.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5176.0</v>
+        <v>1887.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1972.0</v>
+        <v>1210.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>665.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4868.0</v>
+        <v>2072.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2264.0</v>
+        <v>1351.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>709.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7106.0</v>
+        <v>2269.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2437.0</v>
+        <v>1481.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>774.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6496.0</v>
+        <v>2491.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2352.0</v>
+        <v>1635.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>840.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7126.0</v>
+        <v>2756.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2523.0</v>
+        <v>1829.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>909.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7846.0</v>
+        <v>3056.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2877.0</v>
+        <v>2028.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1009.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8479.0</v>
+        <v>3399.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2932.0</v>
+        <v>2249.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1127.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7610.0</v>
+        <v>3730.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3231.0</v>
+        <v>2477.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1230.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7129.0</v>
+        <v>4097.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3533.0</v>
+        <v>2715.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1355.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9985.0</v>
+        <v>4469.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3718.0</v>
+        <v>2938.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1499.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8935.0</v>
+        <v>4924.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3626.0</v>
+        <v>3269.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1620.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9651.0</v>
+        <v>5438.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3617.0</v>
+        <v>3616.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>514.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1784.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10475.0</v>
+        <v>5980.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4004.0</v>
+        <v>3982.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1959.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11431.0</v>
+        <v>6533.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4099.0</v>
+        <v>4326.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2165.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9683.0</v>
+        <v>7113.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4402.0</v>
+        <v>4685.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2382.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9144.0</v>
+        <v>7768.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4777.0</v>
+        <v>5094.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>655.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2622.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12984.0</v>
+        <v>8446.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4995.0</v>
+        <v>5482.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2910.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11518.0</v>
+        <v>9234.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4672.0</v>
+        <v>5982.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3195.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12291.0</v>
+        <v>9998.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4938.0</v>
+        <v>6422.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3514.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13048.0</v>
+        <v>10854.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5298.0</v>
+        <v>6943.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3842.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13773.0</v>
+        <v>11756.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5288.0</v>
+        <v>7456.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4221.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11953.0</v>
+        <v>12741.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5418.0</v>
+        <v>8021.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>985.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4636.0</v>
       </c>
     </row>
     <row r="63">

--- a/src/output/results7.xlsx
+++ b/src/output/results7.xlsx
@@ -346,10 +346,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="C1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0</v>
+        <v>94.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>94.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.0</v>
+        <v>103.0</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>103.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>114.0</v>
       </c>
       <c r="B6" t="n">
-        <v>5.0</v>
+        <v>114.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.0</v>
+        <v>121.0</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0</v>
+        <v>121.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,937 +465,937 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16.0</v>
+        <v>132.0</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0</v>
+        <v>131.0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24.0</v>
+        <v>141.0</v>
       </c>
       <c r="B9" t="n">
-        <v>24.0</v>
+        <v>139.0</v>
       </c>
       <c r="C9" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29.0</v>
+        <v>153.0</v>
       </c>
       <c r="B10" t="n">
-        <v>29.0</v>
+        <v>149.0</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39.0</v>
+        <v>160.0</v>
       </c>
       <c r="B11" t="n">
-        <v>38.0</v>
+        <v>154.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43.0</v>
+        <v>175.0</v>
       </c>
       <c r="B12" t="n">
-        <v>40.0</v>
+        <v>167.0</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>48.0</v>
+        <v>189.0</v>
       </c>
       <c r="B13" t="n">
-        <v>44.0</v>
+        <v>177.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>56.0</v>
+        <v>203.0</v>
       </c>
       <c r="B14" t="n">
-        <v>50.0</v>
+        <v>186.0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70.0</v>
+        <v>229.0</v>
       </c>
       <c r="B15" t="n">
-        <v>64.0</v>
+        <v>208.0</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>81.0</v>
+        <v>248.0</v>
       </c>
       <c r="B16" t="n">
-        <v>73.0</v>
+        <v>223.0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>97.0</v>
+        <v>275.0</v>
       </c>
       <c r="B17" t="n">
-        <v>89.0</v>
+        <v>241.0</v>
       </c>
       <c r="C17" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>115.0</v>
+        <v>307.0</v>
       </c>
       <c r="B18" t="n">
-        <v>99.0</v>
+        <v>269.0</v>
       </c>
       <c r="C18" t="n">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>16.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131.0</v>
+        <v>343.0</v>
       </c>
       <c r="B19" t="n">
-        <v>110.0</v>
+        <v>299.0</v>
       </c>
       <c r="C19" t="n">
-        <v>16.0</v>
+        <v>36.0</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>21.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>147.0</v>
+        <v>390.0</v>
       </c>
       <c r="B20" t="n">
-        <v>125.0</v>
+        <v>340.0</v>
       </c>
       <c r="C20" t="n">
-        <v>16.0</v>
+        <v>47.0</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>22.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>168.0</v>
+        <v>425.0</v>
       </c>
       <c r="B21" t="n">
-        <v>138.0</v>
+        <v>366.0</v>
       </c>
       <c r="C21" t="n">
-        <v>21.0</v>
+        <v>35.0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>30.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>179.0</v>
+        <v>489.0</v>
       </c>
       <c r="B22" t="n">
-        <v>145.0</v>
+        <v>418.0</v>
       </c>
       <c r="C22" t="n">
-        <v>11.0</v>
+        <v>64.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>199.0</v>
+        <v>536.0</v>
       </c>
       <c r="B23" t="n">
-        <v>156.0</v>
+        <v>449.0</v>
       </c>
       <c r="C23" t="n">
-        <v>20.0</v>
+        <v>47.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E23" t="n">
-        <v>43.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>233.0</v>
+        <v>603.0</v>
       </c>
       <c r="B24" t="n">
-        <v>182.0</v>
+        <v>503.0</v>
       </c>
       <c r="C24" t="n">
-        <v>34.0</v>
+        <v>67.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E24" t="n">
-        <v>51.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>264.0</v>
+        <v>665.0</v>
       </c>
       <c r="B25" t="n">
-        <v>204.0</v>
+        <v>551.0</v>
       </c>
       <c r="C25" t="n">
-        <v>31.0</v>
+        <v>62.0</v>
       </c>
       <c r="D25" t="n">
         <v>1.0</v>
       </c>
       <c r="E25" t="n">
-        <v>59.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>290.0</v>
+        <v>732.0</v>
       </c>
       <c r="B26" t="n">
-        <v>219.0</v>
+        <v>596.0</v>
       </c>
       <c r="C26" t="n">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
       <c r="D26" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E26" t="n">
-        <v>68.0</v>
+        <v>134.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>316.0</v>
+        <v>787.0</v>
       </c>
       <c r="B27" t="n">
-        <v>235.0</v>
+        <v>630.0</v>
       </c>
       <c r="C27" t="n">
-        <v>26.0</v>
+        <v>55.0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E27" t="n">
-        <v>78.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>343.0</v>
+        <v>860.0</v>
       </c>
       <c r="B28" t="n">
-        <v>246.0</v>
+        <v>683.0</v>
       </c>
       <c r="C28" t="n">
-        <v>27.0</v>
+        <v>73.0</v>
       </c>
       <c r="D28" t="n">
         <v>3.0</v>
       </c>
       <c r="E28" t="n">
-        <v>94.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>370.0</v>
+        <v>937.0</v>
       </c>
       <c r="B29" t="n">
-        <v>256.0</v>
+        <v>732.0</v>
       </c>
       <c r="C29" t="n">
-        <v>27.0</v>
+        <v>77.0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E29" t="n">
-        <v>111.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>402.0</v>
+        <v>1005.0</v>
       </c>
       <c r="B30" t="n">
-        <v>276.0</v>
+        <v>767.0</v>
       </c>
       <c r="C30" t="n">
-        <v>32.0</v>
+        <v>68.0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E30" t="n">
-        <v>122.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>442.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B31" t="n">
-        <v>304.0</v>
+        <v>823.0</v>
       </c>
       <c r="C31" t="n">
-        <v>40.0</v>
+        <v>75.0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E31" t="n">
-        <v>133.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>482.0</v>
+        <v>1170.0</v>
       </c>
       <c r="B32" t="n">
-        <v>326.0</v>
+        <v>870.0</v>
       </c>
       <c r="C32" t="n">
-        <v>40.0</v>
+        <v>90.0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E32" t="n">
-        <v>150.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>517.0</v>
+        <v>1247.0</v>
       </c>
       <c r="B33" t="n">
-        <v>345.0</v>
+        <v>905.0</v>
       </c>
       <c r="C33" t="n">
-        <v>35.0</v>
+        <v>77.0</v>
       </c>
       <c r="D33" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="E33" t="n">
-        <v>165.0</v>
+        <v>331.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>546.0</v>
+        <v>1337.0</v>
       </c>
       <c r="B34" t="n">
-        <v>348.0</v>
+        <v>945.0</v>
       </c>
       <c r="C34" t="n">
-        <v>29.0</v>
+        <v>90.0</v>
       </c>
       <c r="D34" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="E34" t="n">
-        <v>191.0</v>
+        <v>378.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>596.0</v>
+        <v>1439.0</v>
       </c>
       <c r="B35" t="n">
-        <v>375.0</v>
+        <v>1002.0</v>
       </c>
       <c r="C35" t="n">
-        <v>50.0</v>
+        <v>102.0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="E35" t="n">
-        <v>213.0</v>
+        <v>422.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>642.0</v>
+        <v>1532.0</v>
       </c>
       <c r="B36" t="n">
-        <v>392.0</v>
+        <v>1049.0</v>
       </c>
       <c r="C36" t="n">
-        <v>46.0</v>
+        <v>93.0</v>
       </c>
       <c r="D36" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="E36" t="n">
-        <v>242.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>722.0</v>
+        <v>1638.0</v>
       </c>
       <c r="B37" t="n">
-        <v>449.0</v>
+        <v>1088.0</v>
       </c>
       <c r="C37" t="n">
-        <v>80.0</v>
+        <v>106.0</v>
       </c>
       <c r="D37" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="E37" t="n">
-        <v>263.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>807.0</v>
+        <v>1771.0</v>
       </c>
       <c r="B38" t="n">
-        <v>510.0</v>
+        <v>1159.0</v>
       </c>
       <c r="C38" t="n">
-        <v>85.0</v>
+        <v>133.0</v>
       </c>
       <c r="D38" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E38" t="n">
-        <v>287.0</v>
+        <v>596.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>884.0</v>
+        <v>1902.0</v>
       </c>
       <c r="B39" t="n">
-        <v>562.0</v>
+        <v>1225.0</v>
       </c>
       <c r="C39" t="n">
-        <v>77.0</v>
+        <v>131.0</v>
       </c>
       <c r="D39" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="E39" t="n">
-        <v>312.0</v>
+        <v>658.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>988.0</v>
+        <v>2062.0</v>
       </c>
       <c r="B40" t="n">
-        <v>628.0</v>
+        <v>1325.0</v>
       </c>
       <c r="C40" t="n">
-        <v>104.0</v>
+        <v>160.0</v>
       </c>
       <c r="D40" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="E40" t="n">
-        <v>350.0</v>
+        <v>716.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1075.0</v>
+        <v>2225.0</v>
       </c>
       <c r="B41" t="n">
-        <v>684.0</v>
+        <v>1424.0</v>
       </c>
       <c r="C41" t="n">
-        <v>87.0</v>
+        <v>163.0</v>
       </c>
       <c r="D41" t="n">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.0</v>
+        <v>775.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1178.0</v>
+        <v>2418.0</v>
       </c>
       <c r="B42" t="n">
-        <v>759.0</v>
+        <v>1550.0</v>
       </c>
       <c r="C42" t="n">
-        <v>103.0</v>
+        <v>193.0</v>
       </c>
       <c r="D42" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
       <c r="E42" t="n">
-        <v>407.0</v>
+        <v>841.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1301.0</v>
+        <v>2621.0</v>
       </c>
       <c r="B43" t="n">
-        <v>841.0</v>
+        <v>1675.0</v>
       </c>
       <c r="C43" t="n">
-        <v>123.0</v>
+        <v>203.0</v>
       </c>
       <c r="D43" t="n">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
       <c r="E43" t="n">
-        <v>447.0</v>
+        <v>917.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1432.0</v>
+        <v>2873.0</v>
       </c>
       <c r="B44" t="n">
-        <v>946.0</v>
+        <v>1849.0</v>
       </c>
       <c r="C44" t="n">
-        <v>131.0</v>
+        <v>252.0</v>
       </c>
       <c r="D44" t="n">
-        <v>13.0</v>
+        <v>30.0</v>
       </c>
       <c r="E44" t="n">
-        <v>473.0</v>
+        <v>994.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1607.0</v>
+        <v>3110.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1082.0</v>
+        <v>2003.0</v>
       </c>
       <c r="C45" t="n">
-        <v>175.0</v>
+        <v>237.0</v>
       </c>
       <c r="D45" t="n">
-        <v>13.0</v>
+        <v>32.0</v>
       </c>
       <c r="E45" t="n">
-        <v>512.0</v>
+        <v>1075.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1801.0</v>
+        <v>3365.0</v>
       </c>
       <c r="B46" t="n">
-        <v>1212.0</v>
+        <v>2156.0</v>
       </c>
       <c r="C46" t="n">
-        <v>194.0</v>
+        <v>255.0</v>
       </c>
       <c r="D46" t="n">
-        <v>13.0</v>
+        <v>33.0</v>
       </c>
       <c r="E46" t="n">
-        <v>576.0</v>
+        <v>1176.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2002.0</v>
+        <v>3660.0</v>
       </c>
       <c r="B47" t="n">
-        <v>1363.0</v>
+        <v>2352.0</v>
       </c>
       <c r="C47" t="n">
-        <v>201.0</v>
+        <v>295.0</v>
       </c>
       <c r="D47" t="n">
-        <v>13.0</v>
+        <v>36.0</v>
       </c>
       <c r="E47" t="n">
-        <v>626.0</v>
+        <v>1272.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2260.0</v>
+        <v>4004.0</v>
       </c>
       <c r="B48" t="n">
-        <v>1550.0</v>
+        <v>2603.0</v>
       </c>
       <c r="C48" t="n">
-        <v>258.0</v>
+        <v>344.0</v>
       </c>
       <c r="D48" t="n">
-        <v>15.0</v>
+        <v>38.0</v>
       </c>
       <c r="E48" t="n">
-        <v>695.0</v>
+        <v>1363.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2573.0</v>
+        <v>4372.0</v>
       </c>
       <c r="B49" t="n">
-        <v>1803.0</v>
+        <v>2850.0</v>
       </c>
       <c r="C49" t="n">
-        <v>313.0</v>
+        <v>368.0</v>
       </c>
       <c r="D49" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="E49" t="n">
-        <v>754.0</v>
+        <v>1482.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2930.0</v>
+        <v>4788.0</v>
       </c>
       <c r="B50" t="n">
-        <v>2087.0</v>
+        <v>3142.0</v>
       </c>
       <c r="C50" t="n">
-        <v>357.0</v>
+        <v>416.0</v>
       </c>
       <c r="D50" t="n">
-        <v>19.0</v>
+        <v>44.0</v>
       </c>
       <c r="E50" t="n">
-        <v>824.0</v>
+        <v>1602.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3309.0</v>
+        <v>5253.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2384.0</v>
+        <v>3470.0</v>
       </c>
       <c r="C51" t="n">
-        <v>379.0</v>
+        <v>465.0</v>
       </c>
       <c r="D51" t="n">
-        <v>19.0</v>
+        <v>48.0</v>
       </c>
       <c r="E51" t="n">
-        <v>906.0</v>
+        <v>1735.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3703.0</v>
+        <v>5716.0</v>
       </c>
       <c r="B52" t="n">
-        <v>2664.0</v>
+        <v>3786.0</v>
       </c>
       <c r="C52" t="n">
-        <v>394.0</v>
+        <v>463.0</v>
       </c>
       <c r="D52" t="n">
-        <v>19.0</v>
+        <v>52.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1020.0</v>
+        <v>1878.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4115.0</v>
+        <v>6235.0</v>
       </c>
       <c r="B53" t="n">
-        <v>2942.0</v>
+        <v>4129.0</v>
       </c>
       <c r="C53" t="n">
-        <v>412.0</v>
+        <v>519.0</v>
       </c>
       <c r="D53" t="n">
-        <v>22.0</v>
+        <v>52.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1151.0</v>
+        <v>2054.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4589.0</v>
+        <v>6833.0</v>
       </c>
       <c r="B54" t="n">
-        <v>3285.0</v>
+        <v>4537.0</v>
       </c>
       <c r="C54" t="n">
-        <v>474.0</v>
+        <v>598.0</v>
       </c>
       <c r="D54" t="n">
-        <v>26.0</v>
+        <v>58.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1278.0</v>
+        <v>2238.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5135.0</v>
+        <v>7459.0</v>
       </c>
       <c r="B55" t="n">
-        <v>3672.0</v>
+        <v>4962.0</v>
       </c>
       <c r="C55" t="n">
-        <v>546.0</v>
+        <v>626.0</v>
       </c>
       <c r="D55" t="n">
-        <v>27.0</v>
+        <v>63.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1436.0</v>
+        <v>2434.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5677.0</v>
+        <v>8122.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4054.0</v>
+        <v>5380.0</v>
       </c>
       <c r="C56" t="n">
-        <v>542.0</v>
+        <v>663.0</v>
       </c>
       <c r="D56" t="n">
-        <v>29.0</v>
+        <v>66.0</v>
       </c>
       <c r="E56" t="n">
-        <v>1594.0</v>
+        <v>2676.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6305.0</v>
+        <v>8761.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4503.0</v>
+        <v>5765.0</v>
       </c>
       <c r="C57" t="n">
-        <v>628.0</v>
+        <v>639.0</v>
       </c>
       <c r="D57" t="n">
-        <v>30.0</v>
+        <v>72.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1772.0</v>
+        <v>2924.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6985.0</v>
+        <v>9447.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4947.0</v>
+        <v>6182.0</v>
       </c>
       <c r="C58" t="n">
-        <v>680.0</v>
+        <v>686.0</v>
       </c>
       <c r="D58" t="n">
-        <v>32.0</v>
+        <v>80.0</v>
       </c>
       <c r="E58" t="n">
-        <v>2006.0</v>
+        <v>3185.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7733.0</v>
+        <v>10196.0</v>
       </c>
       <c r="B59" t="n">
-        <v>5512.0</v>
+        <v>6642.0</v>
       </c>
       <c r="C59" t="n">
-        <v>748.0</v>
+        <v>749.0</v>
       </c>
       <c r="D59" t="n">
-        <v>32.0</v>
+        <v>87.0</v>
       </c>
       <c r="E59" t="n">
-        <v>2189.0</v>
+        <v>3467.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8502.0</v>
+        <v>10988.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5993.0</v>
+        <v>7117.0</v>
       </c>
       <c r="C60" t="n">
-        <v>769.0</v>
+        <v>792.0</v>
       </c>
       <c r="D60" t="n">
-        <v>38.0</v>
+        <v>93.0</v>
       </c>
       <c r="E60" t="n">
-        <v>2471.0</v>
+        <v>3778.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9296.0</v>
+        <v>11810.0</v>
       </c>
       <c r="B61" t="n">
-        <v>6472.0</v>
+        <v>7613.0</v>
       </c>
       <c r="C61" t="n">
-        <v>794.0</v>
+        <v>822.0</v>
       </c>
       <c r="D61" t="n">
-        <v>45.0</v>
+        <v>98.0</v>
       </c>
       <c r="E61" t="n">
-        <v>2779.0</v>
+        <v>4099.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10148.0</v>
+        <v>12679.0</v>
       </c>
       <c r="B62" t="n">
-        <v>6995.0</v>
+        <v>8098.0</v>
       </c>
       <c r="C62" t="n">
-        <v>852.0</v>
+        <v>869.0</v>
       </c>
       <c r="D62" t="n">
-        <v>55.0</v>
+        <v>107.0</v>
       </c>
       <c r="E62" t="n">
-        <v>3098.0</v>
+        <v>4474.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results7.xlsx
+++ b/src/output/results7.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>80.0</v>
+        <v>304.0</v>
       </c>
       <c r="B1" t="n">
-        <v>80.0</v>
+        <v>304.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86.0</v>
+        <v>314.0</v>
       </c>
       <c r="B2" t="n">
-        <v>86.0</v>
+        <v>314.0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91.0</v>
+        <v>334.0</v>
       </c>
       <c r="B3" t="n">
-        <v>91.0</v>
+        <v>334.0</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94.0</v>
+        <v>356.0</v>
       </c>
       <c r="B4" t="n">
-        <v>94.0</v>
+        <v>356.0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103.0</v>
+        <v>395.0</v>
       </c>
       <c r="B5" t="n">
-        <v>103.0</v>
+        <v>395.0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.0</v>
+        <v>39.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,64 +431,64 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>114.0</v>
+        <v>419.0</v>
       </c>
       <c r="B6" t="n">
-        <v>114.0</v>
+        <v>418.0</v>
       </c>
       <c r="C6" t="n">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>121.0</v>
+        <v>461.0</v>
       </c>
       <c r="B7" t="n">
-        <v>121.0</v>
+        <v>460.0</v>
       </c>
       <c r="C7" t="n">
-        <v>7.0</v>
+        <v>42.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>132.0</v>
+        <v>498.0</v>
       </c>
       <c r="B8" t="n">
-        <v>131.0</v>
+        <v>496.0</v>
       </c>
       <c r="C8" t="n">
-        <v>11.0</v>
+        <v>37.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>141.0</v>
+        <v>530.0</v>
       </c>
       <c r="B9" t="n">
-        <v>139.0</v>
+        <v>528.0</v>
       </c>
       <c r="C9" t="n">
-        <v>9.0</v>
+        <v>32.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -499,903 +499,2212 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>153.0</v>
+        <v>567.0</v>
       </c>
       <c r="B10" t="n">
-        <v>149.0</v>
+        <v>564.0</v>
       </c>
       <c r="C10" t="n">
-        <v>12.0</v>
+        <v>37.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>160.0</v>
+        <v>601.0</v>
       </c>
       <c r="B11" t="n">
-        <v>154.0</v>
+        <v>594.0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.0</v>
+        <v>34.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>175.0</v>
+        <v>638.0</v>
       </c>
       <c r="B12" t="n">
-        <v>167.0</v>
+        <v>625.0</v>
       </c>
       <c r="C12" t="n">
-        <v>15.0</v>
+        <v>37.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>189.0</v>
+        <v>686.0</v>
       </c>
       <c r="B13" t="n">
-        <v>177.0</v>
+        <v>662.0</v>
       </c>
       <c r="C13" t="n">
-        <v>14.0</v>
+        <v>48.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>203.0</v>
+        <v>728.0</v>
       </c>
       <c r="B14" t="n">
-        <v>186.0</v>
+        <v>690.0</v>
       </c>
       <c r="C14" t="n">
-        <v>14.0</v>
+        <v>42.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>17.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>229.0</v>
+        <v>768.0</v>
       </c>
       <c r="B15" t="n">
-        <v>208.0</v>
+        <v>713.0</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>21.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>248.0</v>
+        <v>815.0</v>
       </c>
       <c r="B16" t="n">
-        <v>223.0</v>
+        <v>742.0</v>
       </c>
       <c r="C16" t="n">
-        <v>19.0</v>
+        <v>47.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>25.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>275.0</v>
+        <v>873.0</v>
       </c>
       <c r="B17" t="n">
-        <v>241.0</v>
+        <v>780.0</v>
       </c>
       <c r="C17" t="n">
-        <v>27.0</v>
+        <v>58.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>307.0</v>
+        <v>935.0</v>
       </c>
       <c r="B18" t="n">
-        <v>269.0</v>
+        <v>817.0</v>
       </c>
       <c r="C18" t="n">
-        <v>32.0</v>
+        <v>62.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>38.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>343.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B19" t="n">
-        <v>299.0</v>
+        <v>846.0</v>
       </c>
       <c r="C19" t="n">
-        <v>36.0</v>
+        <v>65.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>44.0</v>
+        <v>153.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>390.0</v>
+        <v>1071.0</v>
       </c>
       <c r="B20" t="n">
-        <v>340.0</v>
+        <v>898.0</v>
       </c>
       <c r="C20" t="n">
-        <v>47.0</v>
+        <v>71.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>50.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>425.0</v>
+        <v>1158.0</v>
       </c>
       <c r="B21" t="n">
-        <v>366.0</v>
+        <v>959.0</v>
       </c>
       <c r="C21" t="n">
-        <v>35.0</v>
+        <v>87.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>59.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>489.0</v>
+        <v>1245.0</v>
       </c>
       <c r="B22" t="n">
-        <v>418.0</v>
+        <v>1019.0</v>
       </c>
       <c r="C22" t="n">
-        <v>64.0</v>
+        <v>87.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" t="n">
-        <v>70.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>536.0</v>
+        <v>1352.0</v>
       </c>
       <c r="B23" t="n">
-        <v>449.0</v>
+        <v>1086.0</v>
       </c>
       <c r="C23" t="n">
-        <v>47.0</v>
+        <v>107.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" t="n">
-        <v>86.0</v>
+        <v>262.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>603.0</v>
+        <v>1469.0</v>
       </c>
       <c r="B24" t="n">
-        <v>503.0</v>
+        <v>1153.0</v>
       </c>
       <c r="C24" t="n">
-        <v>67.0</v>
+        <v>117.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" t="n">
-        <v>99.0</v>
+        <v>312.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>665.0</v>
+        <v>1594.0</v>
       </c>
       <c r="B25" t="n">
-        <v>551.0</v>
+        <v>1238.0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.0</v>
+        <v>125.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E25" t="n">
-        <v>113.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>732.0</v>
+        <v>1706.0</v>
       </c>
       <c r="B26" t="n">
-        <v>596.0</v>
+        <v>1311.0</v>
       </c>
       <c r="C26" t="n">
-        <v>67.0</v>
+        <v>112.0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E26" t="n">
-        <v>134.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>787.0</v>
+        <v>1823.0</v>
       </c>
       <c r="B27" t="n">
-        <v>630.0</v>
+        <v>1377.0</v>
       </c>
       <c r="C27" t="n">
-        <v>55.0</v>
+        <v>117.0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E27" t="n">
-        <v>155.0</v>
+        <v>438.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>860.0</v>
+        <v>1961.0</v>
       </c>
       <c r="B28" t="n">
-        <v>683.0</v>
+        <v>1466.0</v>
       </c>
       <c r="C28" t="n">
-        <v>73.0</v>
+        <v>138.0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="E28" t="n">
-        <v>174.0</v>
+        <v>487.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>937.0</v>
+        <v>2095.0</v>
       </c>
       <c r="B29" t="n">
-        <v>732.0</v>
+        <v>1553.0</v>
       </c>
       <c r="C29" t="n">
-        <v>77.0</v>
+        <v>134.0</v>
       </c>
       <c r="D29" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="E29" t="n">
-        <v>201.0</v>
+        <v>533.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1005.0</v>
+        <v>2224.0</v>
       </c>
       <c r="B30" t="n">
-        <v>767.0</v>
+        <v>1624.0</v>
       </c>
       <c r="C30" t="n">
-        <v>68.0</v>
+        <v>129.0</v>
       </c>
       <c r="D30" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E30" t="n">
-        <v>232.0</v>
+        <v>591.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1080.0</v>
+        <v>2403.0</v>
       </c>
       <c r="B31" t="n">
-        <v>823.0</v>
+        <v>1742.0</v>
       </c>
       <c r="C31" t="n">
-        <v>75.0</v>
+        <v>179.0</v>
       </c>
       <c r="D31" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="E31" t="n">
-        <v>250.0</v>
+        <v>651.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1170.0</v>
+        <v>2569.0</v>
       </c>
       <c r="B32" t="n">
-        <v>870.0</v>
+        <v>1837.0</v>
       </c>
       <c r="C32" t="n">
-        <v>90.0</v>
+        <v>166.0</v>
       </c>
       <c r="D32" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="E32" t="n">
-        <v>291.0</v>
+        <v>722.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1247.0</v>
+        <v>2762.0</v>
       </c>
       <c r="B33" t="n">
-        <v>905.0</v>
+        <v>1948.0</v>
       </c>
       <c r="C33" t="n">
-        <v>77.0</v>
+        <v>193.0</v>
       </c>
       <c r="D33" t="n">
         <v>11.0</v>
       </c>
       <c r="E33" t="n">
-        <v>331.0</v>
+        <v>803.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1337.0</v>
+        <v>2960.0</v>
       </c>
       <c r="B34" t="n">
-        <v>945.0</v>
+        <v>2069.0</v>
       </c>
       <c r="C34" t="n">
-        <v>90.0</v>
+        <v>198.0</v>
       </c>
       <c r="D34" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E34" t="n">
-        <v>378.0</v>
+        <v>879.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1439.0</v>
+        <v>3168.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1002.0</v>
+        <v>2182.0</v>
       </c>
       <c r="C35" t="n">
-        <v>102.0</v>
+        <v>208.0</v>
       </c>
       <c r="D35" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="E35" t="n">
-        <v>422.0</v>
+        <v>974.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1532.0</v>
+        <v>3399.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1049.0</v>
+        <v>2320.0</v>
       </c>
       <c r="C36" t="n">
-        <v>93.0</v>
+        <v>231.0</v>
       </c>
       <c r="D36" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="E36" t="n">
-        <v>468.0</v>
+        <v>1063.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1638.0</v>
+        <v>3618.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1088.0</v>
+        <v>2426.0</v>
       </c>
       <c r="C37" t="n">
-        <v>106.0</v>
+        <v>219.0</v>
       </c>
       <c r="D37" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="E37" t="n">
-        <v>535.0</v>
+        <v>1175.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1771.0</v>
+        <v>3879.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1159.0</v>
+        <v>2585.0</v>
       </c>
       <c r="C38" t="n">
-        <v>133.0</v>
+        <v>261.0</v>
       </c>
       <c r="D38" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="E38" t="n">
-        <v>596.0</v>
+        <v>1274.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1902.0</v>
+        <v>4159.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1225.0</v>
+        <v>2740.0</v>
       </c>
       <c r="C39" t="n">
-        <v>131.0</v>
+        <v>280.0</v>
       </c>
       <c r="D39" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="E39" t="n">
-        <v>658.0</v>
+        <v>1397.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2062.0</v>
+        <v>4476.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1325.0</v>
+        <v>2923.0</v>
       </c>
       <c r="C40" t="n">
-        <v>160.0</v>
+        <v>317.0</v>
       </c>
       <c r="D40" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="E40" t="n">
-        <v>716.0</v>
+        <v>1531.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2225.0</v>
+        <v>4783.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1424.0</v>
+        <v>3093.0</v>
       </c>
       <c r="C41" t="n">
-        <v>163.0</v>
+        <v>307.0</v>
       </c>
       <c r="D41" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="E41" t="n">
-        <v>775.0</v>
+        <v>1667.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2418.0</v>
+        <v>5116.0</v>
       </c>
       <c r="B42" t="n">
-        <v>1550.0</v>
+        <v>3281.0</v>
       </c>
       <c r="C42" t="n">
-        <v>193.0</v>
+        <v>333.0</v>
       </c>
       <c r="D42" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="E42" t="n">
-        <v>841.0</v>
+        <v>1810.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2621.0</v>
+        <v>5465.0</v>
       </c>
       <c r="B43" t="n">
-        <v>1675.0</v>
+        <v>3481.0</v>
       </c>
       <c r="C43" t="n">
-        <v>203.0</v>
+        <v>349.0</v>
       </c>
       <c r="D43" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="E43" t="n">
-        <v>917.0</v>
+        <v>1958.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2873.0</v>
+        <v>5866.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1849.0</v>
+        <v>3726.0</v>
       </c>
       <c r="C44" t="n">
-        <v>252.0</v>
+        <v>401.0</v>
       </c>
       <c r="D44" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="E44" t="n">
-        <v>994.0</v>
+        <v>2114.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3110.0</v>
+        <v>6272.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2003.0</v>
+        <v>3982.0</v>
       </c>
       <c r="C45" t="n">
-        <v>237.0</v>
+        <v>406.0</v>
       </c>
       <c r="D45" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1075.0</v>
+        <v>2262.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3365.0</v>
+        <v>6716.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2156.0</v>
+        <v>4236.0</v>
       </c>
       <c r="C46" t="n">
-        <v>255.0</v>
+        <v>444.0</v>
       </c>
       <c r="D46" t="n">
-        <v>33.0</v>
+        <v>28.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1176.0</v>
+        <v>2452.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3660.0</v>
+        <v>7182.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2352.0</v>
+        <v>4513.0</v>
       </c>
       <c r="C47" t="n">
-        <v>295.0</v>
+        <v>466.0</v>
       </c>
       <c r="D47" t="n">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1272.0</v>
+        <v>2641.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4004.0</v>
+        <v>7732.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2603.0</v>
+        <v>4854.0</v>
       </c>
       <c r="C48" t="n">
-        <v>344.0</v>
+        <v>550.0</v>
       </c>
       <c r="D48" t="n">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1363.0</v>
+        <v>2849.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4372.0</v>
+        <v>8272.0</v>
       </c>
       <c r="B49" t="n">
-        <v>2850.0</v>
+        <v>5160.0</v>
       </c>
       <c r="C49" t="n">
-        <v>368.0</v>
+        <v>540.0</v>
       </c>
       <c r="D49" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1482.0</v>
+        <v>3082.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4788.0</v>
+        <v>8848.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3142.0</v>
+        <v>5480.0</v>
       </c>
       <c r="C50" t="n">
-        <v>416.0</v>
+        <v>576.0</v>
       </c>
       <c r="D50" t="n">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1602.0</v>
+        <v>3335.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5253.0</v>
+        <v>9555.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3470.0</v>
+        <v>5920.0</v>
       </c>
       <c r="C51" t="n">
-        <v>465.0</v>
+        <v>707.0</v>
       </c>
       <c r="D51" t="n">
-        <v>48.0</v>
+        <v>39.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1735.0</v>
+        <v>3596.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5716.0</v>
+        <v>10211.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3786.0</v>
+        <v>6293.0</v>
       </c>
       <c r="C52" t="n">
-        <v>463.0</v>
+        <v>656.0</v>
       </c>
       <c r="D52" t="n">
-        <v>52.0</v>
+        <v>40.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1878.0</v>
+        <v>3878.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6235.0</v>
+        <v>10908.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4129.0</v>
+        <v>6700.0</v>
       </c>
       <c r="C53" t="n">
-        <v>519.0</v>
+        <v>697.0</v>
       </c>
       <c r="D53" t="n">
-        <v>52.0</v>
+        <v>42.0</v>
       </c>
       <c r="E53" t="n">
-        <v>2054.0</v>
+        <v>4166.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6833.0</v>
+        <v>11691.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4537.0</v>
+        <v>7133.0</v>
       </c>
       <c r="C54" t="n">
-        <v>598.0</v>
+        <v>783.0</v>
       </c>
       <c r="D54" t="n">
-        <v>58.0</v>
+        <v>48.0</v>
       </c>
       <c r="E54" t="n">
-        <v>2238.0</v>
+        <v>4510.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7459.0</v>
+        <v>12535.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4962.0</v>
+        <v>7631.0</v>
       </c>
       <c r="C55" t="n">
-        <v>626.0</v>
+        <v>844.0</v>
       </c>
       <c r="D55" t="n">
-        <v>63.0</v>
+        <v>50.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2434.0</v>
+        <v>4854.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8122.0</v>
+        <v>13387.0</v>
       </c>
       <c r="B56" t="n">
-        <v>5380.0</v>
+        <v>8123.0</v>
       </c>
       <c r="C56" t="n">
-        <v>663.0</v>
+        <v>852.0</v>
       </c>
       <c r="D56" t="n">
-        <v>66.0</v>
+        <v>52.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2676.0</v>
+        <v>5212.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8761.0</v>
+        <v>14258.0</v>
       </c>
       <c r="B57" t="n">
-        <v>5765.0</v>
+        <v>8586.0</v>
       </c>
       <c r="C57" t="n">
-        <v>639.0</v>
+        <v>871.0</v>
       </c>
       <c r="D57" t="n">
-        <v>72.0</v>
+        <v>54.0</v>
       </c>
       <c r="E57" t="n">
-        <v>2924.0</v>
+        <v>5618.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9447.0</v>
+        <v>15203.0</v>
       </c>
       <c r="B58" t="n">
-        <v>6182.0</v>
+        <v>9093.0</v>
       </c>
       <c r="C58" t="n">
-        <v>686.0</v>
+        <v>945.0</v>
       </c>
       <c r="D58" t="n">
-        <v>80.0</v>
+        <v>59.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3185.0</v>
+        <v>6051.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10196.0</v>
+        <v>16140.0</v>
       </c>
       <c r="B59" t="n">
-        <v>6642.0</v>
+        <v>9535.0</v>
       </c>
       <c r="C59" t="n">
-        <v>749.0</v>
+        <v>937.0</v>
       </c>
       <c r="D59" t="n">
-        <v>87.0</v>
+        <v>61.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3467.0</v>
+        <v>6544.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10988.0</v>
+        <v>17131.0</v>
       </c>
       <c r="B60" t="n">
-        <v>7117.0</v>
+        <v>10009.0</v>
       </c>
       <c r="C60" t="n">
-        <v>792.0</v>
+        <v>991.0</v>
       </c>
       <c r="D60" t="n">
-        <v>93.0</v>
+        <v>70.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3778.0</v>
+        <v>7052.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11810.0</v>
+        <v>18223.0</v>
       </c>
       <c r="B61" t="n">
-        <v>7613.0</v>
+        <v>10586.0</v>
       </c>
       <c r="C61" t="n">
-        <v>822.0</v>
+        <v>1092.0</v>
       </c>
       <c r="D61" t="n">
-        <v>98.0</v>
+        <v>75.0</v>
       </c>
       <c r="E61" t="n">
-        <v>4099.0</v>
+        <v>7562.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12679.0</v>
+        <v>19341.0</v>
       </c>
       <c r="B62" t="n">
-        <v>8098.0</v>
+        <v>11139.0</v>
       </c>
       <c r="C62" t="n">
-        <v>869.0</v>
+        <v>1118.0</v>
       </c>
       <c r="D62" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8124.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20454.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>11675.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1113.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8693.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>21670.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>12248.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1216.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9330.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>22878.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12793.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1208.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9988.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>24267.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>13438.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1389.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10724.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7260.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3525.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3683.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7549.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3581.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3910.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7852.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3654.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4138.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>8149.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3717.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4366.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>8475.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3806.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4596.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>8782.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3859.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4850.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>9140.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3984.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5080.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>9486.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4072.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5337.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>9883.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4202.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5599.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10283.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4355.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5843.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10695.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4492.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>6114.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11119.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4655.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>424.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6370.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11576.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4841.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>457.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6636.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>12077.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5017.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="D80" t="n">
         <v>107.0</v>
       </c>
-      <c r="E62" t="n">
-        <v>4474.0</v>
+      <c r="E80" t="n">
+        <v>6953.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>12610.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5237.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>533.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7260.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>13163.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5472.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>7574.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>13740.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5708.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>577.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7907.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>14345.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5983.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>605.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8235.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>14980.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6300.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>635.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>8545.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>15613.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6580.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>633.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8894.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>16360.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6999.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>9212.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17148.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7424.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>9573.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>17974.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7824.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9993.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>18823.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8224.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>849.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10437.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>19656.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8620.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>833.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10872.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20565.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9070.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>909.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11328.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>21506.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>9492.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>941.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11841.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>22492.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>9935.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>986.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>12378.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>23551.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>10447.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1059.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>12917.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>24610.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>10873.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1059.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>13544.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>25626.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>11250.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>14176.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>26690.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>11662.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1064.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>14818.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>27838.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>12159.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1148.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>15461.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>28935.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>12500.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1097.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>16207.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>30026.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>12851.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1091.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>16940.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>31123.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>13098.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1097.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>17777.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>32228.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>13389.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1105.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>18579.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>33378.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>13667.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1150.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>19436.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>34564.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>13977.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1186.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>20303.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>35732.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>14214.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>21223.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>36972.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>14563.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>22105.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>38188.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>14806.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1216.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>23062.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>39368.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>15013.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1180.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>24024.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>40664.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>15333.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1296.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>24986.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>41921.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>15551.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1257.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>26009.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>43162.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>15777.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1241.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>27005.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>44514.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>16075.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1352.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>28048.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>45861.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>16279.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>29172.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>47255.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>16603.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1394.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>30226.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>48619.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>16861.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1364.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>442.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>31316.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>50084.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>17203.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1465.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>32423.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>51618.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>17568.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1534.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>33575.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>53100.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>17842.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1482.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>34770.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>54559.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>18135.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1459.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>35916.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>56091.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>18428.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1532.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>37137.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>57613.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>18704.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1522.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>539.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>38370.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>59198.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>19080.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1585.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>563.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>39555.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>60715.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>19252.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>583.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>40880.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>62222.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>19492.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1507.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>596.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>42134.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>63905.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>19852.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1683.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>614.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>43439.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>65534.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>20129.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1629.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>633.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>44772.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>67133.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>20318.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1599.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>653.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>46162.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>68801.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>20598.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1668.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>668.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>47535.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>70449.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>20898.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1648.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>687.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>48864.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>72144.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>21106.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1695.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>50338.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>73804.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>21338.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1660.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>51750.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>75523.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>21620.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>741.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>53162.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>77206.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>21860.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1683.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>54582.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>78932.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>22067.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1726.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>56073.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>80632.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>22188.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>821.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>57623.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>82409.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>22484.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1777.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>845.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>59080.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>84137.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>22649.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1728.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>871.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>60617.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>85963.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>22910.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1826.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>62159.0</v>
       </c>
     </row>
   </sheetData>
